--- a/prop_stat.xlsx
+++ b/prop_stat.xlsx
@@ -432,10 +432,10 @@
         <v>-0.9789152084812983</v>
       </c>
       <c r="E2">
-        <v>-0.8971196430947791</v>
+        <v>-0.9092370595325115</v>
       </c>
       <c r="F2">
-        <v>-0.895837942235292</v>
+        <v>-0.9107132873030553</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,10 +452,10 @@
         <v>0.1976669011723188</v>
       </c>
       <c r="E3">
-        <v>0.1974014959695385</v>
+        <v>0.1911107702435448</v>
       </c>
       <c r="F3">
-        <v>0.1964794680010457</v>
+        <v>0.1888696366484245</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,10 +472,10 @@
         <v>0.5811156018017173</v>
       </c>
       <c r="E4">
-        <v>0.6379709218923652</v>
+        <v>0.6927846874411493</v>
       </c>
       <c r="F4">
-        <v>0.6837462830829623</v>
+        <v>0.7342762429397284</v>
       </c>
     </row>
   </sheetData>

--- a/prop_stat.xlsx
+++ b/prop_stat.xlsx
@@ -1,20 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rucksack\Jupyter Notebooks\campob\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9BE17-8AFD-455E-9FBF-E44EF07C3CCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+  <si>
+    <t>Ant Tracking</t>
+  </si>
+  <si>
+    <t>phie</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
   <si>
     <t>Norte</t>
   </si>
@@ -28,23 +78,29 @@
     <t>Quissamã</t>
   </si>
   <si>
-    <t>N Res</t>
-  </si>
-  <si>
-    <t>Ant Tracking</t>
-  </si>
-  <si>
-    <t>PHIE</t>
-  </si>
-  <si>
-    <t>Saturação de Água</t>
+    <t>Não Reservatório</t>
+  </si>
+  <si>
+    <t>N células</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>Mín</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,17 +152,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCellId="2" sqref="B1:B1048576 E1:E1048576 A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,71 +521,887 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>234079</v>
+      </c>
+      <c r="C2">
+        <v>234079</v>
+      </c>
+      <c r="D2">
+        <v>234079</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>-0.9810716817018886</v>
-      </c>
-      <c r="C2">
-        <v>-0.9772003634747103</v>
-      </c>
-      <c r="D2">
-        <v>-0.9789152084812983</v>
-      </c>
-      <c r="E2">
-        <v>-0.9092370595325115</v>
-      </c>
-      <c r="F2">
-        <v>-0.9107132873030553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>-0.9808155366351673</v>
+      </c>
+      <c r="C3">
+        <v>0.19930976166168701</v>
+      </c>
+      <c r="D3">
+        <v>0.64464064265908272</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0.2000340144549683</v>
-      </c>
-      <c r="C3">
-        <v>0.1957845534783238</v>
-      </c>
-      <c r="D3">
+      <c r="B4">
+        <v>6.1153701958098938E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.0572269951557773E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.1895436115973099</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>6.4609E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.67364999999999997</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.78231000000000006</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.76</v>
+      </c>
+      <c r="C9">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>234140</v>
+      </c>
+      <c r="C10">
+        <v>234140</v>
+      </c>
+      <c r="D10">
+        <v>234140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>-0.97701537541647798</v>
+      </c>
+      <c r="C11">
+        <v>0.19602446869394741</v>
+      </c>
+      <c r="D11">
+        <v>0.51760711098912759</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>7.3462628888428888E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.8596387493343607E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.19306854747525001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>6.4609E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.36785000000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>0.2024</v>
+      </c>
+      <c r="D15">
+        <v>0.53181</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.66538999999999993</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0.52</v>
+      </c>
+      <c r="C17">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>468219</v>
+      </c>
+      <c r="C18">
+        <v>468219</v>
+      </c>
+      <c r="D18">
+        <v>468219</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>-0.97891520848129832</v>
+      </c>
+      <c r="C19">
         <v>0.1976669011723188</v>
       </c>
-      <c r="E3">
-        <v>0.1911107702435448</v>
-      </c>
-      <c r="F3">
-        <v>0.1888696366484245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="D19">
+        <v>0.58111560180171729</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>6.7616381500829839E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.9621184577086093E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.20158253925828171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0.6505427073619838</v>
-      </c>
-      <c r="C4">
-        <v>0.5259066039851743</v>
-      </c>
-      <c r="D4">
-        <v>0.5811156018017173</v>
-      </c>
-      <c r="E4">
-        <v>0.6927846874411493</v>
-      </c>
-      <c r="F4">
-        <v>0.7342762429397284</v>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.4609E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>0.17230000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.44466000000000011</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>0.2036</v>
+      </c>
+      <c r="D23">
+        <v>0.59877999999999998</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>0.2266</v>
+      </c>
+      <c r="D24">
+        <v>0.73566999999999994</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>0.76</v>
+      </c>
+      <c r="C25">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1692162</v>
+      </c>
+      <c r="C26">
+        <v>1692162</v>
+      </c>
+      <c r="D26">
+        <v>1692162</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>-0.97914170156003777</v>
+      </c>
+      <c r="C27">
+        <v>0.1900495861506894</v>
+      </c>
+      <c r="D27">
+        <v>0.68846644372807286</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>6.2230271566036832E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.1638501167095528E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.1759371177455778</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D29">
+        <v>6.4609E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>0.1615</v>
+      </c>
+      <c r="D30">
+        <v>0.60538999999999998</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>0.1976</v>
+      </c>
+      <c r="D31">
+        <v>0.70565</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>0.2233</v>
+      </c>
+      <c r="D32">
+        <v>0.81601749999999995</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>0.76</v>
+      </c>
+      <c r="C33">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1223943</v>
+      </c>
+      <c r="C34">
+        <v>1223943</v>
+      </c>
+      <c r="D34">
+        <v>1223943</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>-0.97922834641647527</v>
+      </c>
+      <c r="C35">
+        <v>0.18713558474532249</v>
+      </c>
+      <c r="D35">
+        <v>0.72953347369677313</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>6.0041984877437782E-2</v>
+      </c>
+      <c r="C36">
+        <v>5.2095998819720712E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.14544793239015141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>-1</v>
+      </c>
+      <c r="C37">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D37">
+        <v>6.4609E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.63046000000000002</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.73638999999999999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <v>0.221</v>
+      </c>
+      <c r="D40">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>0.41</v>
+      </c>
+      <c r="C41">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E530D8EB-FC71-4013-B93E-6539423B2B78}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>234079</v>
+      </c>
+      <c r="C2" s="2">
+        <v>234140</v>
+      </c>
+      <c r="D2" s="2">
+        <v>468219</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1692162</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1223943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.9808155366351673</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.97701537541647798</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.97891520848129832</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.97914170156003777</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.97922834641647527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.1153701958098938E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.3462628888428888E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.7616381500829839E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.2230271566036832E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.0041984877437782E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>